--- a/rank.xlsx
+++ b/rank.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>reyting</t>
   </si>
@@ -22,6 +22,9 @@
     <t>user_id</t>
   </si>
   <si>
+    <t>full_name</t>
+  </si>
+  <si>
     <t>olimpida_id</t>
   </si>
   <si>
@@ -29,6 +32,30 @@
   </si>
   <si>
     <t>send_time</t>
+  </si>
+  <si>
+    <t>1104616109</t>
+  </si>
+  <si>
+    <t>Aliy Sadullaev</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>55.56</t>
+  </si>
+  <si>
+    <t>19:23:15</t>
+  </si>
+  <si>
+    <t>1750889783</t>
+  </si>
+  <si>
+    <t>44.44</t>
+  </si>
+  <si>
+    <t>19:21:21</t>
   </si>
 </sst>
 </file>
@@ -87,9 +114,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -386,20 +416,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,6 +445,49 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/rank.xlsx
+++ b/rank.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>reyting</t>
   </si>
@@ -34,28 +34,19 @@
     <t>send_time</t>
   </si>
   <si>
-    <t>1104616109</t>
-  </si>
-  <si>
-    <t>Aliy Sadullaev</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>55.56</t>
-  </si>
-  <si>
-    <t>19:23:15</t>
-  </si>
-  <si>
-    <t>1750889783</t>
-  </si>
-  <si>
-    <t>44.44</t>
-  </si>
-  <si>
-    <t>19:21:21</t>
+    <t>5356014595</t>
+  </si>
+  <si>
+    <t>Azizbek Berdimuratov</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>12:24:58</t>
   </si>
 </sst>
 </file>
@@ -416,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -470,26 +461,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
